--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74719C05-FB3E-412E-B23E-CE595DC765F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4192B56-6B16-43C3-B4B4-9F0E083B15F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -782,7 +782,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -861,7 +861,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -888,7 +888,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -915,7 +915,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -945,7 +945,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -977,7 +977,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>10</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="8" t="s">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>57</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>44501</v>
+        <v>44500</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>12</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>44507</v>
+        <v>44506</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>44508</v>
+        <v>44507</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>32</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>41</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>40</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>44521</v>
+        <v>44520</v>
       </c>
       <c r="B37" s="4"/>
       <c r="F37" s="10" t="s">
@@ -1849,7 +1849,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="B38" s="4"/>
       <c r="F38" s="10" t="s">
@@ -1872,7 +1872,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B39" s="4"/>
       <c r="Q39" s="6"/>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B40" s="4"/>
       <c r="Q40" s="6"/>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B41" s="4"/>
       <c r="Q41" s="6"/>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B42" s="4"/>
       <c r="J42" s="5"/>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B43" s="4"/>
       <c r="J43" s="5"/>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B44" s="4"/>
       <c r="E44" s="11"/>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B45" s="4"/>
       <c r="Q45" s="6"/>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B46" s="4"/>
       <c r="Q46" s="6"/>
@@ -2018,56 +2018,56 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B50" s="4"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>44535</v>
+        <v>44534</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>44536</v>
+        <v>44535</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B55" s="4"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4192B56-6B16-43C3-B4B4-9F0E083B15F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C1B178-D188-4BE9-98A0-922EFA07E840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,300 +23,300 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>化院vs生中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>城环vs信科</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>法学vs物理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>政管vs城环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>历史vs信管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新传vs数学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>经济vs社哲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>医学vs心理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>法学vs外院</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>元培vs国关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>法学vs光华</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生中vs信管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新传vs信科</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数学vs信科</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>心理vs社哲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数学vs政管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外院vs光华</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>医学vs经济</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工学vs国关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>环科vs元培</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外院vs物理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数学vs城环</t>
   </si>
   <si>
     <t>光华vs物理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>医学vs社哲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>政管vs信科</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生中vs历史</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>环科vs国关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工学vs元培</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>心理vs经济</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>化院vs信管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>化院vs历史</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新传vs城环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J3vsJ4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J11vsJ12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J5vsJ6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J13vsJ14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J7vsJ8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J1vsJ2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J15vsJ16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>J9vsJ10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>K3vsK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>K1vsK2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>K5vsK6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>K7vsK8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>半决赛1vs半决赛2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>半决赛3vs半决赛4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>决赛1vs决赛2</t>
   </si>
   <si>
     <t>元培vs新传（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>医学vs光经（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>信科vs艺哲（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>信科vs法学（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>医学vs社会（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外院vs心理（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>城环vs国关（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物理vs地空（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>元培vs化院（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>艺哲vs法学（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文vs物理（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>光经vs社会（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新传vs化院（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>信管vs心理（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>政管vs国关（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文vs地空（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R5vsR6（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R1vsR2（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R3vsR4（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R7vsR8（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>半决赛1vs半决赛2（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>半决赛3vs半决赛4（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>决赛1vs决赛2（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>城环vs政管（女）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>环科vs工学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新传vs政管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +333,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -395,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,28 +406,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -713,133 +707,138 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.58203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B1" s="14">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="C1" s="14">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D1" s="14">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="E1" s="14">
+      <c r="B1" s="13">
         <v>0.53472222222222221</v>
       </c>
-      <c r="F1" s="14">
+      <c r="C1" s="13">
         <v>0.53472222222222221</v>
       </c>
-      <c r="G1" s="14">
+      <c r="D1" s="13">
         <v>0.53472222222222221</v>
       </c>
-      <c r="H1" s="14">
+      <c r="E1" s="13">
         <v>0.59722222222222221</v>
       </c>
-      <c r="I1" s="14">
+      <c r="F1" s="13">
         <v>0.59722222222222221</v>
       </c>
-      <c r="J1" s="14">
+      <c r="G1" s="13">
         <v>0.59722222222222221</v>
       </c>
-      <c r="K1" s="14">
+      <c r="H1" s="13">
         <v>0.65972222222222221</v>
       </c>
+      <c r="I1" s="13">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="J1" s="13">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="K1" s="13">
+        <v>0.75</v>
+      </c>
       <c r="L1" s="14">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="M1" s="14">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="N1" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="O1" s="14">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="M1" s="15">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="N1" s="15">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="O1" s="15">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="P1" s="15">
         <v>0.83333333333333337</v>
       </c>
+      <c r="Q1" s="15">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44485</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="3"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44486</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="3"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -855,9 +854,8 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -867,14 +865,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -899,9 +896,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -921,18 +917,15 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="5"/>
-      <c r="Q7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="Q7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -949,22 +942,18 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>1</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-      <c r="Q8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="Q8" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -979,32 +968,31 @@
       <c r="A9" s="4">
         <v>44492</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="3"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1020,32 +1008,31 @@
       <c r="A10" s="4">
         <v>44493</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="3"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1069,9 +1056,8 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1091,17 +1077,15 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="Q12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="Q12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1120,17 +1104,15 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="Q13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="Q13" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1149,15 +1131,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="Q14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1173,18 +1153,15 @@
         <v>44498</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="7"/>
-      <c r="Q15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="Q15" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1199,32 +1176,31 @@
       <c r="A16" s="4">
         <v>44499</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="3"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1240,30 +1216,29 @@
       <c r="A17" s="4">
         <v>44500</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="3"/>
+      <c r="N17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="3"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1288,9 +1263,8 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1310,16 +1284,14 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="Q19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="Q19" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -1338,15 +1310,13 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="Q20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -1365,17 +1335,15 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="Q21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="Q21" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -1394,17 +1362,15 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="Q22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1423,20 +1389,19 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
         <v>62</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="3"/>
+      <c r="N23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="3"/>
       <c r="O23" s="1"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -1453,32 +1418,31 @@
       <c r="A24" s="4">
         <v>44507</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="8" t="s">
+      <c r="L24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="N24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="3"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -1503,9 +1467,8 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -1530,9 +1493,8 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -1557,9 +1519,8 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -1584,9 +1545,8 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1611,9 +1571,8 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -1629,26 +1588,25 @@
       <c r="A30" s="4">
         <v>44513</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="3"/>
+      <c r="N30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M30" s="3"/>
       <c r="O30" s="1"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -1665,26 +1623,25 @@
       <c r="A31" s="4">
         <v>44514</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="3"/>
+      <c r="N31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="3"/>
       <c r="O31" s="1"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -1710,7 +1667,6 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="Q32" s="6"/>
@@ -1829,11 +1785,11 @@
         <v>44520</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="11" t="s">
         <v>44</v>
       </c>
       <c r="Q37" s="6"/>
@@ -1852,11 +1808,11 @@
         <v>44521</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="11" t="s">
         <v>45</v>
       </c>
       <c r="Q38" s="6"/>
@@ -1924,11 +1880,11 @@
       </c>
       <c r="B42" s="4"/>
       <c r="J42" s="5"/>
-      <c r="L42" s="11"/>
-      <c r="N42" s="10" t="s">
+      <c r="K42" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="O42" s="13" t="s">
+      <c r="L42" s="10"/>
+      <c r="P42" s="12" t="s">
         <v>46</v>
       </c>
       <c r="Q42" s="6"/>
@@ -1964,15 +1920,15 @@
         <v>44527</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -2224,7 +2180,7 @@
       <c r="B93" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C1B178-D188-4BE9-98A0-922EFA07E840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CBC28D-43B5-4BBC-988F-6D5A9D23E0B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,295 +20,281 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t>化院vs生中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>城环vs信科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法学vs物理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政管vs城环</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史vs信管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新传vs数学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济vs社哲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>医学vs心理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法学vs外院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>元培vs国关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法学vs光华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生中vs信管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新传vs信科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学vs信科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>心理vs社哲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学vs政管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外院vs光华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>医学vs经济</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工学vs国关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>环科vs元培</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外院vs物理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学vs城环</t>
-  </si>
-  <si>
-    <t>光华vs物理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>医学vs社哲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政管vs信科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生中vs历史</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>环科vs国关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工学vs元培</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>心理vs经济</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>化院vs信管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>化院vs历史</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新传vs城环</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3vsJ4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J11vsJ12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5vsJ6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J13vsJ14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J7vsJ8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J1vsJ2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J15vsJ16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J9vsJ10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3vsK4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K1vsK2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K5vsK6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K7vsK8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>半决赛1vs半决赛2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>半决赛3vs半决赛4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>C1vsC2</t>
+  </si>
+  <si>
+    <t>C3vsC4</t>
+  </si>
+  <si>
+    <t>B1vsB2</t>
+  </si>
+  <si>
+    <t>A1vsA2</t>
+  </si>
+  <si>
+    <t>B3vsB4</t>
+  </si>
+  <si>
+    <t>A3vsA4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2vsA3</t>
+  </si>
+  <si>
+    <t>A1vsA4</t>
+  </si>
+  <si>
+    <t>C2vsC3</t>
+  </si>
+  <si>
+    <t>C4vsC5</t>
+  </si>
+  <si>
+    <t>B2vsB3</t>
+  </si>
+  <si>
+    <t>B1vsB4</t>
+  </si>
+  <si>
+    <t>A4vsA5</t>
+  </si>
+  <si>
+    <t>B4vsB5</t>
+  </si>
+  <si>
+    <t>C3vsC5</t>
+  </si>
+  <si>
+    <t>A2vsA4</t>
+  </si>
+  <si>
+    <t>A1vsA3</t>
+  </si>
+  <si>
+    <t>A3vsA5</t>
+  </si>
+  <si>
+    <t>C1vsC4</t>
+  </si>
+  <si>
+    <t>C1vsC5</t>
+  </si>
+  <si>
+    <t>B3vsB5</t>
+  </si>
+  <si>
+    <t>C1vsC3</t>
+  </si>
+  <si>
+    <t>B2vsB5</t>
+  </si>
+  <si>
+    <t>B1vsB3</t>
+  </si>
+  <si>
+    <t>C2vsC5</t>
+  </si>
+  <si>
+    <t>A2vsA5</t>
+  </si>
+  <si>
+    <t>C2vsC4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1vsB5</t>
+  </si>
+  <si>
+    <t>B2vsB4</t>
+  </si>
+  <si>
+    <t>A1vsA5</t>
+  </si>
+  <si>
+    <t>C3vsC4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3vsA4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3vsD4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1vsD2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1vsA2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1vsC2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1vsA4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2vsC3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1vsB4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2vsD3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4vsD5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2vsA3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4vsC5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2vsB3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3vsB4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1vsD5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2vsA4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1vsA3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2vsC4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1vsB2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2vsD4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1vsC5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2vsD5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1vsC3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1vsB3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2vsB4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1vsD3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2vsC5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1vsD4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3vsD5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1vsC4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3vsC5（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强1vs八强2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强3vs八强4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强5vs八强6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强7vs八强8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强7vs八强8（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强3vs八强4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强1vs八强2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八强5vs八强6（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四强1vs四强2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四强3vs四强4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四强1vs四强2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四强3vs四强4（女）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>决赛1vs决赛2</t>
-  </si>
-  <si>
-    <t>元培vs新传（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>医学vs光经（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>信科vs艺哲（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>信科vs法学（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>医学vs社会（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外院vs心理（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>城环vs国关（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理vs地空（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>元培vs化院（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>艺哲vs法学（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文vs物理（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光经vs社会（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新传vs化院（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>信管vs心理（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政管vs国关（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文vs地空（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R5vsR6（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1vsR2（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R3vsR4（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R7vsR8（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>半决赛1vs半决赛2（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>半决赛3vs半决赛4（女）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>决赛1vs决赛2（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>城环vs政管（女）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>环科vs工学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新传vs政管</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +313,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -334,6 +321,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -367,6 +355,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,13 +407,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +418,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -706,171 +698,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.58203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>0.53472222222222221</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>0.53472222222222221</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="11">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="11">
         <v>0.59722222222222221</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="11">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="11">
         <v>0.65972222222222221</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="11">
         <v>0.65972222222222221</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="11">
         <v>0.65972222222222221</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="11">
         <v>0.75</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="12">
         <v>0.76388888888888884</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="13">
         <v>0.76388888888888884</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="13">
         <v>0.82638888888888884</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="13">
         <v>0.82638888888888884</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="13">
         <v>0.84722222222222221</v>
       </c>
-      <c r="U1" s="13"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>44485</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>44464</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>44486</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>44465</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="L3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>44487</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
+        <v>44466</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>44488</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="3"/>
+        <v>44467</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
       <c r="N5" s="3"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -885,18 +884,20 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>44489</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="L6" s="3"/>
+        <v>44468</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
       <c r="N6" s="3"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -911,21 +912,22 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>44490</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="3"/>
+        <v>44469</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
       <c r="N7" s="3"/>
-      <c r="Q7" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -938,22 +940,22 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>44491</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="L8" s="3"/>
+        <v>44470</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
       <c r="N8" s="3"/>
-      <c r="Q8" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q8" s="7"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -966,33 +968,21 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>44492</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>44471</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" s="8"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1006,33 +996,21 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>44493</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="L10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>44472</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" s="8"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1046,17 +1024,20 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>44494</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3"/>
+        <v>44473</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
       <c r="N11" s="3"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1071,21 +1052,22 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>44495</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
+        <v>44474</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
       <c r="N12" s="3"/>
-      <c r="Q12" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1098,21 +1080,22 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>44496</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
+        <v>44475</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
       <c r="N13" s="3"/>
-      <c r="Q13" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1125,17 +1108,20 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>44497</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="3"/>
+        <v>44476</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="N14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="6"/>
@@ -1150,18 +1136,19 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>44498</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="Q15" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>44477</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1174,32 +1161,35 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>44499</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="L16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>59</v>
+        <v>44478</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16"/>
+      <c r="L16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -1214,31 +1204,32 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>44500</v>
-      </c>
-      <c r="B17" s="7" t="s">
+        <v>44479</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1252,19 +1243,20 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>44501</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
+        <v>44480</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1278,20 +1270,21 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>44502</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="Q19" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>44481</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="Q19" s="7"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -1304,18 +1297,20 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>44503</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
+        <v>44482</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -1329,21 +1324,21 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>44504</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="Q21" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>44483</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -1356,21 +1351,18 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>44505</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="Q22" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>44484</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1383,24 +1375,35 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>44506</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="N23" s="7" t="s">
-        <v>37</v>
+        <v>44485</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23"/>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="O23" s="1"/>
       <c r="Q23" s="6"/>
@@ -1416,33 +1419,33 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>44507</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="L24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>44486</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24" s="7"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -1456,18 +1459,20 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>44508</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" s="3"/>
+        <v>44487</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
       <c r="N25" s="3"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -1482,18 +1487,20 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>44509</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
+        <v>44488</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
       <c r="N26" s="3"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -1508,18 +1515,20 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
+        <v>44489</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
       <c r="N27" s="3"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -1534,18 +1543,20 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>44511</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
+        <v>44490</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
       <c r="N28" s="3"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -1560,18 +1571,20 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>44512</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3"/>
+        <v>44491</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
       <c r="N29" s="3"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -1586,27 +1599,33 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>44513</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="N30" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>44492</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="1"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -1621,27 +1640,33 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>44514</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="N31" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>44493</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31" s="8"/>
       <c r="O31" s="1"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -1656,19 +1681,20 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>44515</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+        <v>44494</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -1682,20 +1708,20 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>44516</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+        <v>44495</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -1709,20 +1735,20 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>44517</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+        <v>44496</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -1736,15 +1762,20 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>44518</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="5"/>
-      <c r="L35" s="5"/>
+        <v>44497</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -1758,17 +1789,20 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>44519</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+        <v>44498</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -1782,16 +1816,32 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>44520</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="F37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="I37" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>44499</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -1805,16 +1855,28 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>44521</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="F38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="I38" s="11" t="s">
-        <v>45</v>
-      </c>
+        <v>44500</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -1828,9 +1890,20 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>44522</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>44501</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -1844,9 +1917,20 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>44523</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>44502</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -1860,9 +1944,20 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>44524</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>44503</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -1876,17 +1971,21 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>44525</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="P42" s="12" t="s">
-        <v>46</v>
-      </c>
+        <v>44504</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="P42" s="10"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -1900,10 +1999,20 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>44526</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="J43" s="5"/>
+        <v>44505</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -1917,18 +2026,28 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>44527</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+        <v>44506</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -1942,9 +2061,28 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44528</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>44507</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -1958,9 +2096,20 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>44508</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -1974,92 +2123,250 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>44530</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>44509</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>44531</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44510</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>44532</v>
-      </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44511</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>44533</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44512</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>44534</v>
-      </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44513</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>44535</v>
-      </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44514</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>44536</v>
-      </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44515</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>44537</v>
-      </c>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44516</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>44538</v>
-      </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+        <v>44517</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>44518</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>44519</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>44520</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="P58" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>44521</v>
+      </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>44522</v>
+      </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>44523</v>
+      </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>44524</v>
+      </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
     </row>
@@ -2112,23 +2419,18 @@
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
       <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CBC28D-43B5-4BBC-988F-6D5A9D23E0B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED281CA6-D2CF-417A-9039-3F4D515715B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>C1vsC2</t>
   </si>
@@ -295,6 +295,45 @@
   </si>
   <si>
     <t>决赛1vs决赛2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5vsA6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5vsB6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1vsA6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1vsB6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2vsA6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2vsB6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4vsA6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3vsB6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3vsA6</t>
+  </si>
+  <si>
+    <t>B4vsB6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,6 +460,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -698,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -719,7 +763,7 @@
     <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.75" customWidth="1"/>
     <col min="19" max="19" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,6 +897,9 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" s="3"/>
+      <c r="Q4" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -871,7 +918,9 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" s="3"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -1257,7 +1306,9 @@
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1284,7 +1335,9 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -1474,7 +1527,9 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" s="3"/>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -1502,7 +1557,9 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" s="3"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -1695,7 +1752,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="Q32" s="6"/>
+      <c r="Q32" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -1722,7 +1781,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="Q33" s="6"/>
+      <c r="Q33" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -1842,6 +1903,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
+      <c r="N37" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -1877,6 +1941,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
+      <c r="N38" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -1904,7 +1971,7 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="18"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
@@ -1931,7 +1998,7 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="Q40" s="6"/>
+      <c r="Q40" s="18"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20378"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED281CA6-D2CF-417A-9039-3F4D515715B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9BA5B-6A98-4455-A61B-AC8B17435C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2396,13 +2396,13 @@
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
-      <c r="K58" s="16" t="s">
-        <v>74</v>
+      <c r="K58" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="P58" s="15" t="s">
-        <v>75</v>
+      <c r="P58" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7C4FB-D88D-45A6-8FF5-DDEDC721085E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1532717-1382-47B0-9DB9-B4B53D4F14AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="30" windowWidth="10820" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,342 +217,343 @@
     <t>C2vsC5（女）</t>
   </si>
   <si>
+    <t>C1vsC3（女）</t>
+  </si>
+  <si>
+    <t>B2vsB5（女）</t>
+  </si>
+  <si>
+    <t>A3vsA5（女）</t>
+  </si>
+  <si>
+    <t>A1vsA4（女）</t>
+  </si>
+  <si>
+    <t>C1vsC4（女）</t>
+  </si>
+  <si>
+    <t>C3vsC5（女）</t>
+  </si>
+  <si>
+    <t>B1vsB4（女）</t>
+  </si>
+  <si>
+    <t>B3vsB5（女）</t>
+  </si>
+  <si>
+    <t>C4vsC5（女）</t>
+  </si>
+  <si>
+    <t>A4vsA5（女）</t>
+  </si>
+  <si>
+    <t>A2vsA3（女）</t>
+  </si>
+  <si>
+    <t>C2vsC3（女）</t>
+  </si>
+  <si>
+    <t>B4vsB5（女）</t>
+  </si>
+  <si>
+    <t>B2vsB3（女）</t>
+  </si>
+  <si>
+    <t>A1vsA2（女）</t>
+  </si>
+  <si>
+    <t>B3vsB4（女）</t>
+  </si>
+  <si>
+    <t>C1vsC2（女）</t>
+  </si>
+  <si>
+    <t>A3vsA4（女）</t>
+  </si>
+  <si>
+    <t>B1vsB2（女）</t>
+  </si>
+  <si>
+    <t>C3vsC4（女）</t>
+  </si>
+  <si>
+    <t>A2vsA4（女）</t>
+  </si>
+  <si>
+    <t>C2vsC4（女）</t>
+  </si>
+  <si>
+    <t>B1vsB5（女）</t>
+  </si>
+  <si>
+    <t>C1vsC5（女）</t>
+  </si>
+  <si>
+    <t>A1vsA5（女）</t>
+  </si>
+  <si>
+    <t>B2vsB4（女）</t>
+  </si>
+  <si>
+    <t>D2vsD6（女）</t>
+  </si>
+  <si>
+    <t>D4vsD8（女）</t>
+  </si>
+  <si>
+    <t>D1vsD5（女）</t>
+  </si>
+  <si>
+    <t>D3vsD7（女）</t>
+  </si>
+  <si>
+    <t>E1vsE3（女）</t>
+  </si>
+  <si>
+    <t>E2vsE4（女）</t>
+  </si>
+  <si>
+    <t>甲1vs甲2（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲4（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲7vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲4（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲3（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲4（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲3（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲5（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲5（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲5（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲7vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A2vsA5（女）</t>
-  </si>
-  <si>
-    <t>C1vsC3（女）</t>
-  </si>
-  <si>
-    <t>B2vsB5（女）</t>
-  </si>
-  <si>
-    <t>A3vsA5（女）</t>
-  </si>
-  <si>
-    <t>A1vsA4（女）</t>
-  </si>
-  <si>
-    <t>C1vsC4（女）</t>
-  </si>
-  <si>
-    <t>C3vsC5（女）</t>
-  </si>
-  <si>
-    <t>B1vsB4（女）</t>
-  </si>
-  <si>
-    <t>B3vsB5（女）</t>
-  </si>
-  <si>
-    <t>C4vsC5（女）</t>
-  </si>
-  <si>
-    <t>A4vsA5（女）</t>
-  </si>
-  <si>
-    <t>A2vsA3（女）</t>
-  </si>
-  <si>
-    <t>C2vsC3（女）</t>
-  </si>
-  <si>
-    <t>B4vsB5（女）</t>
-  </si>
-  <si>
-    <t>B2vsB3（女）</t>
-  </si>
-  <si>
-    <t>A1vsA2（女）</t>
-  </si>
-  <si>
-    <t>B3vsB4（女）</t>
-  </si>
-  <si>
-    <t>C1vsC2（女）</t>
-  </si>
-  <si>
-    <t>A3vsA4（女）</t>
-  </si>
-  <si>
-    <t>B1vsB2（女）</t>
-  </si>
-  <si>
-    <t>C3vsC4（女）</t>
-  </si>
-  <si>
-    <t>A2vsA4（女）</t>
-  </si>
-  <si>
-    <t>C2vsC4（女）</t>
-  </si>
-  <si>
-    <t>B1vsB5（女）</t>
-  </si>
-  <si>
-    <t>C1vsC5（女）</t>
-  </si>
-  <si>
-    <t>A1vsA5（女）</t>
-  </si>
-  <si>
-    <t>B2vsB4（女）</t>
-  </si>
-  <si>
-    <t>D2vsD6（女）</t>
-  </si>
-  <si>
-    <t>D4vsD8（女）</t>
-  </si>
-  <si>
-    <t>D1vsD5（女）</t>
-  </si>
-  <si>
-    <t>D3vsD7（女）</t>
-  </si>
-  <si>
-    <t>E1vsE3（女）</t>
-  </si>
-  <si>
-    <t>E2vsE4（女）</t>
-  </si>
-  <si>
-    <t>女甲决赛1vs女甲决赛2（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲决赛1vs男甲决赛2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲1vs男甲2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲3vs男甲4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲5vs男甲6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲7vs男甲8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲1vs男甲4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲5vs男甲8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲6vs男甲7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲2vs男甲3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲1vs男甲3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲5vs男甲7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲2vs男甲4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲6vs男甲8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲1vs男甲6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲4vs男甲5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲2vs男甲7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲3vs男甲8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲3vs男甲7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲2vs男甲6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲1vs男甲5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲4vs男甲8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲1vs男甲7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲2vs男甲8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲3vs男甲5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲4vs男甲6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲2vs男甲5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲4vs男甲7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲1vs男甲8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男甲3vs男甲6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲1vs女甲2（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲3vs女甲4（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲5vs女甲6（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲7vs女甲8（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲1vs女甲3（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲2vs女甲4（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲6vs女甲8（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲5vs女甲7（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲5vs女甲8（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲2vs女甲3（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲1vs女甲4（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲6vs女甲7（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲2vs女甲7（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲1vs女甲6（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲3vs女甲8（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲4vs女甲5（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲3vs女甲7（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲1vs女甲5（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲2vs女甲6（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲4vs女甲8（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲4vs女甲6（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲2vs女甲8（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲3vs女甲5（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲1vs女甲7（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲1vs女甲8（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲2vs女甲5（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲4vs女甲7（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女甲3vs女甲6（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女乙决赛1vs女乙决赛2（女）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男乙决赛1vs男乙决赛2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲级决赛1vs甲级决赛2（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙级决赛1vs乙级决赛2（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙级决赛1vs乙级决赛2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲级决赛1vs甲级决赛2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲5（女）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +599,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -616,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -673,41 +678,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,14 +702,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1008,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z175"/>
+  <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1021,74 +999,74 @@
     <col min="4" max="4" width="8.6640625" style="4"/>
     <col min="7" max="7" width="8.6640625" style="4"/>
     <col min="10" max="10" width="8.6640625" style="4"/>
-    <col min="11" max="11" width="8.6640625" style="18"/>
-    <col min="12" max="12" width="8.6640625" style="4"/>
-    <col min="14" max="16" width="8.6640625" style="4"/>
+    <col min="11" max="11" width="8.6640625" style="21"/>
+    <col min="13" max="13" width="8.6640625" style="4"/>
+    <col min="15" max="17" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="19">
         <v>0.53472222222222221</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="19">
         <v>0.53472222222222221</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="19">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="20">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="20">
         <v>0.59722222222222221</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="20">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="20">
         <v>0.65972222222222221</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="20">
         <v>0.65972222222222221</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="20">
         <v>0.65972222222222221</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="20">
         <v>0.75</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="20">
         <v>0.76388888888888884</v>
       </c>
-      <c r="M1" s="24">
+      <c r="M1" s="20">
         <v>0.76388888888888884</v>
       </c>
-      <c r="N1" s="24">
+      <c r="N1" s="20">
         <v>0.82638888888888884</v>
       </c>
-      <c r="O1" s="24">
+      <c r="O1" s="20">
         <v>0.82638888888888884</v>
       </c>
-      <c r="P1" s="22">
+      <c r="P1" s="20">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q1" s="22">
+      <c r="Q1" s="6">
         <v>0.86111111111111116</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44632</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>123</v>
+      <c r="E2" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1097,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -1105,15 +1083,14 @@
       <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44633</v>
       </c>
@@ -1124,23 +1101,22 @@
         <v>17</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="14" t="s">
-        <v>124</v>
+      <c r="E3" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>60</v>
+      <c r="H3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="19"/>
       <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,114 +1127,96 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="U3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44634</v>
       </c>
-      <c r="L4"/>
-      <c r="M4" s="4"/>
-      <c r="N4"/>
-      <c r="Q4" s="12" t="s">
-        <v>61</v>
+      <c r="Q4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" t="s">
         <v>3</v>
       </c>
-      <c r="Z4">
+      <c r="X4">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44635</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5" s="4"/>
-      <c r="N5"/>
-      <c r="Q5" s="4"/>
-      <c r="W5" t="s">
+      <c r="B5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
         <v>4</v>
       </c>
-      <c r="Y5">
+      <c r="W5">
         <v>444443</v>
       </c>
-      <c r="Z5">
+      <c r="X5">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44636</v>
       </c>
-      <c r="L6"/>
-      <c r="M6" s="4"/>
-      <c r="N6"/>
-      <c r="Q6" s="4"/>
-      <c r="W6" t="s">
+      <c r="U6" t="s">
         <v>9</v>
       </c>
-      <c r="Z6">
+      <c r="X6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44637</v>
       </c>
-      <c r="L7"/>
-      <c r="M7" s="4"/>
-      <c r="N7"/>
-      <c r="Q7" s="4"/>
-      <c r="U7" s="8" t="s">
+      <c r="S7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="T7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="U7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9">
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44638</v>
       </c>
-      <c r="L8"/>
-      <c r="M8" s="4"/>
-      <c r="N8"/>
-      <c r="Q8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" s="9" t="s">
+      <c r="Q8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9">
+      <c r="V8" s="10"/>
+      <c r="W8" s="10">
         <v>555</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="X8" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44639</v>
       </c>
@@ -1269,16 +1227,16 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>125</v>
+      <c r="G9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -1286,114 +1244,93 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="W9" s="9" t="s">
+      <c r="U9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44640</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>65</v>
+      <c r="B10" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>66</v>
+      <c r="D10" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>67</v>
+      <c r="H10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="19"/>
       <c r="L10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="16" t="s">
-        <v>68</v>
+      <c r="N10" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="Z10" s="1">
+      <c r="X10" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44641</v>
       </c>
-      <c r="L11"/>
-      <c r="M11" s="4"/>
-      <c r="N11"/>
       <c r="Q11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44642</v>
       </c>
-      <c r="L12"/>
-      <c r="M12" s="4"/>
-      <c r="N12"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44643</v>
       </c>
-      <c r="L13"/>
-      <c r="M13" s="4"/>
-      <c r="N13"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44644</v>
       </c>
-      <c r="L14"/>
-      <c r="M14" s="4"/>
-      <c r="N14"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44645</v>
       </c>
-      <c r="L15"/>
-      <c r="M15" s="4"/>
-      <c r="N15"/>
-      <c r="Q15" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Q15" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44646</v>
       </c>
@@ -1403,74 +1340,72 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>127</v>
+      <c r="H16" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="8" t="s">
-        <v>128</v>
+      <c r="N16" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44647</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>72</v>
+      <c r="C17" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="14" t="s">
-        <v>129</v>
+      <c r="L17" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>41</v>
@@ -1478,472 +1413,408 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44648</v>
       </c>
-      <c r="L18"/>
-      <c r="M18" s="4"/>
-      <c r="N18"/>
       <c r="Q18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44649</v>
       </c>
-      <c r="L19"/>
-      <c r="M19" s="4"/>
-      <c r="N19"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44650</v>
       </c>
-      <c r="L20"/>
-      <c r="M20" s="4"/>
-      <c r="N20"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44651</v>
       </c>
-      <c r="L21"/>
-      <c r="M21" s="4"/>
-      <c r="N21"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44652</v>
       </c>
-      <c r="L22"/>
-      <c r="M22" s="4"/>
-      <c r="N22"/>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>44653</v>
+      </c>
+      <c r="Q23" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>44653</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23" s="4"/>
-      <c r="N23"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>44654</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="19"/>
-      <c r="M24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" s="4"/>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="21"/>
+      <c r="L24" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44655</v>
       </c>
-      <c r="L25"/>
-      <c r="M25" s="4"/>
-      <c r="N25"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="5"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44656</v>
       </c>
-      <c r="L26"/>
-      <c r="M26" s="4"/>
-      <c r="N26"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>44657</v>
       </c>
-      <c r="L27"/>
-      <c r="M27" s="4"/>
-      <c r="N27"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44658</v>
       </c>
-      <c r="L28"/>
-      <c r="M28" s="4"/>
-      <c r="N28"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44659</v>
       </c>
-      <c r="L29"/>
-      <c r="M29" s="4"/>
-      <c r="N29"/>
-      <c r="Q29" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q29" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44660</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>77</v>
+      <c r="B30" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" t="s">
-        <v>103</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" t="s">
+        <v>129</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44661</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
+      <c r="B31" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="L31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>134</v>
+      <c r="O31" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44662</v>
       </c>
-      <c r="L32"/>
-      <c r="M32" s="4"/>
-      <c r="N32"/>
-      <c r="Q32" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q32" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44663</v>
       </c>
-      <c r="L33"/>
-      <c r="M33" s="4"/>
-      <c r="N33"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44664</v>
       </c>
-      <c r="L34"/>
-      <c r="M34" s="4"/>
-      <c r="N34"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44665</v>
       </c>
-      <c r="L35"/>
-      <c r="M35" s="4"/>
-      <c r="N35"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>44666</v>
       </c>
-      <c r="L36"/>
-      <c r="M36" s="4"/>
-      <c r="N36"/>
-      <c r="Q36" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44667</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>135</v>
+      <c r="E37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N37" t="s">
-        <v>110</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44668</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>49</v>
+      <c r="E38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>85</v>
+      <c r="H38" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="19"/>
       <c r="L38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44669</v>
       </c>
-      <c r="L39"/>
-      <c r="M39" s="4"/>
-      <c r="N39"/>
-      <c r="Q39" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>44670</v>
       </c>
-      <c r="L40"/>
-      <c r="M40" s="4"/>
-      <c r="N40"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44671</v>
       </c>
-      <c r="L41"/>
-      <c r="M41" s="4"/>
-      <c r="N41"/>
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44672</v>
       </c>
-      <c r="L42"/>
-      <c r="M42" s="4"/>
-      <c r="N42"/>
-      <c r="Q42" s="4"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>44673</v>
       </c>
-      <c r="L43"/>
-      <c r="M43" s="4"/>
-      <c r="N43"/>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44674</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
         <v>139</v>
       </c>
-      <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" t="s">
-        <v>112</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>52</v>
+      <c r="I44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="N44" t="s">
-        <v>113</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44675</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="14" t="s">
-        <v>140</v>
+      <c r="H45" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="K45" s="19"/>
       <c r="L45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44676</v>
       </c>
-      <c r="L46"/>
-      <c r="M46" s="4"/>
-      <c r="N46"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>44677</v>
       </c>
-      <c r="L47"/>
-      <c r="M47" s="4"/>
-      <c r="N47"/>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>44678</v>
       </c>
-      <c r="L48"/>
-      <c r="M48" s="4"/>
-      <c r="N48"/>
-      <c r="Q48" s="4"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44679</v>
       </c>
-      <c r="L49"/>
-      <c r="M49" s="4"/>
-      <c r="N49"/>
-      <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>44680</v>
       </c>
-      <c r="L50"/>
-      <c r="M50" s="4"/>
-      <c r="N50"/>
-      <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="7">
         <v>44681</v>
       </c>
-      <c r="L51"/>
-      <c r="M51" s="4"/>
-      <c r="N51"/>
-      <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
         <v>44682</v>
       </c>
       <c r="B52" s="1"/>
@@ -1955,204 +1826,124 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="5"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="5"/>
       <c r="N52" s="1"/>
       <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44683</v>
       </c>
-      <c r="L53"/>
-      <c r="M53" s="4"/>
-      <c r="N53"/>
-      <c r="Q53" s="4"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>44684</v>
       </c>
-      <c r="L54"/>
-      <c r="M54" s="4"/>
-      <c r="N54"/>
-      <c r="Q54" s="4"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>44685</v>
       </c>
-      <c r="L55"/>
-      <c r="M55" s="4"/>
-      <c r="N55"/>
-      <c r="Q55" s="4"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>44686</v>
       </c>
-      <c r="L56"/>
-      <c r="M56" s="4"/>
-      <c r="N56"/>
-      <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44687</v>
       </c>
-      <c r="L57"/>
-      <c r="M57" s="4"/>
-      <c r="N57"/>
-      <c r="Q57" s="4"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>44688</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P58" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" t="s">
-        <v>115</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="M58" s="4"/>
-      <c r="N58" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q58" s="4"/>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44689</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>56</v>
+      <c r="H59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
+      <c r="M59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>44690</v>
       </c>
-      <c r="L60"/>
-      <c r="M60" s="4"/>
-      <c r="N60"/>
-      <c r="Q60" s="4"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>44691</v>
       </c>
-      <c r="L61"/>
-      <c r="M61" s="4"/>
-      <c r="N61"/>
-      <c r="Q61" s="4"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44692</v>
       </c>
-      <c r="L62"/>
-      <c r="M62" s="4"/>
-      <c r="N62"/>
-      <c r="Q62" s="4"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>44693</v>
       </c>
-      <c r="L63"/>
-      <c r="M63" s="4"/>
-      <c r="N63"/>
-      <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>44694</v>
       </c>
-      <c r="L64"/>
-      <c r="M64" s="4"/>
-      <c r="N64"/>
-      <c r="Q64" s="4"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>44695</v>
       </c>
-      <c r="B65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="L65" s="11"/>
-      <c r="N65" s="20"/>
+      <c r="K65" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="P65" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q65" s="4"/>
+        <v>144</v>
+      </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44696</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="19"/>
-      <c r="M66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -2161,61 +1952,32 @@
       <c r="A67" s="3">
         <v>44697</v>
       </c>
-      <c r="L67"/>
-      <c r="M67" s="4"/>
-      <c r="N67"/>
-      <c r="Q67" s="4"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>44698</v>
       </c>
-      <c r="L68"/>
-      <c r="M68" s="4"/>
-      <c r="N68"/>
-      <c r="Q68" s="4"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>44699</v>
       </c>
-      <c r="L69"/>
-      <c r="M69" s="4"/>
-      <c r="N69"/>
-      <c r="Q69" s="4"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44700</v>
       </c>
-      <c r="L70"/>
-      <c r="M70" s="4"/>
-      <c r="N70"/>
-      <c r="Q70" s="4"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>44701</v>
       </c>
-      <c r="L71"/>
-      <c r="M71" s="4"/>
-      <c r="N71"/>
-      <c r="Q71" s="4"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>44702</v>
       </c>
-      <c r="K72" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="L72" s="11"/>
-      <c r="M72" s="4"/>
-      <c r="N72"/>
-      <c r="P72" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q72" s="4"/>
+      <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -2230,65 +1992,43 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="5"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="5"/>
       <c r="N73" s="1"/>
       <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>44704</v>
       </c>
-      <c r="L74"/>
-      <c r="M74" s="4"/>
-      <c r="N74"/>
-      <c r="Q74" s="4"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44705</v>
       </c>
-      <c r="L75"/>
-      <c r="M75" s="4"/>
-      <c r="N75"/>
-      <c r="Q75" s="4"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>44706</v>
       </c>
-      <c r="L76"/>
-      <c r="M76" s="4"/>
-      <c r="N76"/>
-      <c r="Q76" s="4"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>44707</v>
       </c>
-      <c r="L77"/>
-      <c r="M77" s="4"/>
-      <c r="N77"/>
-      <c r="Q77" s="4"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>44708</v>
       </c>
-      <c r="L78"/>
-      <c r="M78" s="4"/>
-      <c r="N78"/>
-      <c r="Q78" s="4"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>44709</v>
       </c>
-      <c r="L79"/>
-      <c r="M79" s="4"/>
-      <c r="N79"/>
-      <c r="Q79" s="4"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -2303,65 +2043,43 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="5"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="5"/>
       <c r="N80" s="1"/>
       <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>44711</v>
       </c>
-      <c r="L81"/>
-      <c r="M81" s="4"/>
-      <c r="N81"/>
-      <c r="Q81" s="4"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>44712</v>
       </c>
-      <c r="L82"/>
-      <c r="M82" s="4"/>
-      <c r="N82"/>
-      <c r="Q82" s="4"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44713</v>
       </c>
-      <c r="L83"/>
-      <c r="M83" s="4"/>
-      <c r="N83"/>
-      <c r="Q83" s="4"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>44714</v>
       </c>
-      <c r="L84"/>
-      <c r="M84" s="4"/>
-      <c r="N84"/>
-      <c r="Q84" s="4"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>44715</v>
       </c>
-      <c r="L85"/>
-      <c r="M85" s="4"/>
-      <c r="N85"/>
-      <c r="Q85" s="4"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>44716</v>
       </c>
-      <c r="L86"/>
-      <c r="M86" s="4"/>
-      <c r="N86"/>
-      <c r="Q86" s="4"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
@@ -2376,47 +2094,33 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="5"/>
+      <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="5"/>
       <c r="N87" s="1"/>
       <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44718</v>
       </c>
-      <c r="L88"/>
-      <c r="M88" s="4"/>
-      <c r="N88"/>
-      <c r="Q88" s="4"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>44719</v>
       </c>
-      <c r="L89"/>
-      <c r="M89" s="4"/>
-      <c r="N89"/>
-      <c r="Q89" s="4"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>44720</v>
       </c>
-      <c r="L90"/>
-      <c r="M90" s="4"/>
-      <c r="N90"/>
-      <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>44721</v>
       </c>
-      <c r="L91"/>
-      <c r="M91" s="4"/>
-      <c r="N91"/>
-      <c r="Q91" s="4"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
@@ -2441,11 +2145,13 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="5"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="1"/>
       <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
@@ -2457,27 +2163,27 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>44727</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44728</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>44729</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>44730</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44731</v>
       </c>
@@ -2490,43 +2196,45 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="5"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="1"/>
       <c r="O101" s="5"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>44732</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44733</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>44734</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>44735</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>44736</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>44737</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44738</v>
       </c>
@@ -2539,43 +2247,45 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="5"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="1"/>
       <c r="O108" s="5"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44739</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>44740</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>44741</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>44742</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44743</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>44744</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44745</v>
       </c>
@@ -2588,43 +2298,45 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="5"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="1"/>
       <c r="O115" s="5"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>44746</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>44747</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>44748</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44749</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>44750</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>44751</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44752</v>
       </c>
@@ -2637,43 +2349,45 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="5"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="1"/>
       <c r="O122" s="5"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>44753</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>44754</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>44755</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>44756</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44757</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>44758</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44759</v>
       </c>
@@ -2686,43 +2400,45 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="5"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="1"/>
       <c r="O129" s="5"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>44760</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>44761</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>44762</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44763</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>44764</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>44765</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44766</v>
       </c>
@@ -2735,43 +2451,45 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="5"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="1"/>
       <c r="O136" s="5"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>44767</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44768</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>44769</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>44770</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>44771</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>44772</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44773</v>
       </c>
@@ -2784,43 +2502,45 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="5"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="1"/>
       <c r="O143" s="5"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44774</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>44775</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>44776</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>44777</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>44778</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>44779</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>44780</v>
       </c>
@@ -2833,43 +2553,45 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="5"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="1"/>
       <c r="O150" s="5"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>44781</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>44782</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>44783</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44784</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>44785</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>44786</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44787</v>
       </c>
@@ -2882,43 +2604,45 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="5"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="1"/>
       <c r="O157" s="5"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44788</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>44789</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>44790</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>44791</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>44792</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>44793</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44794</v>
       </c>
@@ -2931,43 +2655,45 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="5"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="1"/>
       <c r="O164" s="5"/>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>44795</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>44796</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>44797</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>44798</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>44799</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44801</v>
       </c>
@@ -2980,28 +2706,30 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="19"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="5"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="1"/>
       <c r="O171" s="5"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44802</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>44803</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>44804</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>44805</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA1A52-C9A3-49BE-A5C1-F6B8474DA935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF98FD-B88D-4758-B5E9-32EDC8F2BA09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>A1vsA4</t>
   </si>
@@ -78,21 +78,15 @@
     <t>b1vsb4</t>
   </si>
   <si>
-    <t>B2vsB5（女）</t>
+    <t>B1vsB4（女）</t>
   </si>
   <si>
     <t>b5vsb2</t>
   </si>
   <si>
-    <t>7va8（女）</t>
-  </si>
-  <si>
     <t>F2vsF3</t>
   </si>
   <si>
-    <t>B3vsB4（女）</t>
-  </si>
-  <si>
     <t>注：</t>
   </si>
   <si>
@@ -141,12 +135,6 @@
     <t>b4vsb5</t>
   </si>
   <si>
-    <t>B5vsB3（女）</t>
-  </si>
-  <si>
-    <t>B1vsB2(女）</t>
-  </si>
-  <si>
     <t>B2vsB3</t>
   </si>
   <si>
@@ -192,6 +180,9 @@
     <t>A-C为乙级小组赛</t>
   </si>
   <si>
+    <t>D、E为乙级淘汰赛</t>
+  </si>
+  <si>
     <t>B4vsB3</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>D4vsD3</t>
   </si>
   <si>
-    <t>B4vsB5（女）</t>
-  </si>
-  <si>
     <t>C1vsC2</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>a1vsa2</t>
   </si>
   <si>
-    <t>B1vsB4（女）</t>
-  </si>
-  <si>
     <t>B2vsB4</t>
   </si>
   <si>
@@ -282,9 +267,6 @@
     <t>D1vsD2</t>
   </si>
   <si>
-    <t>B2vsB3（女）</t>
-  </si>
-  <si>
     <t>3vs5（女）</t>
   </si>
   <si>
@@ -363,12 +345,6 @@
     <t>b4vsb6</t>
   </si>
   <si>
-    <t>B4vsB2（女）</t>
-  </si>
-  <si>
-    <t>B5vsB1（女）</t>
-  </si>
-  <si>
     <t>C2vsC4（女）</t>
   </si>
   <si>
@@ -466,29 +442,53 @@
   </si>
   <si>
     <t>E3vsE4（女）</t>
+  </si>
+  <si>
+    <t>女乙决赛1vs女乙决赛2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女甲决赛1vs女甲决赛2（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男乙决赛1vs男乙决赛1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男甲决赛1vs男甲决赛1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全明星1vs全明星2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>女乙决赛1vs女乙决赛2（女）</t>
+    <t>全明星1vs全明星2（女）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>女甲决赛1vs女甲决赛2（女）</t>
+    <t>7vs8（女）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>男乙决赛1vs男乙决赛2</t>
+    <t>B1vsB2（女）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>男甲决赛1vs男甲决赛2</t>
+    <t>全明星</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>D、E为乙级淘汰赛</t>
+    <t>B2vsB3（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3vsB4（女）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4vsB2（女）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -725,8 +725,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,7 +999,7 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R57" sqref="R56:R57"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,12 +1012,12 @@
     <col min="7" max="7" width="12.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="29" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="16" width="11.875" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1064,7 +1064,7 @@
       <c r="O1" s="27">
         <v>0.82638888888888895</v>
       </c>
-      <c r="P1" s="35">
+      <c r="P1" s="27">
         <v>0.83333333333333337</v>
       </c>
       <c r="Q1" s="16">
@@ -1112,6 +1112,7 @@
       <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
@@ -1143,18 +1144,25 @@
       <c r="L3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O3" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="10"/>
       <c r="S3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
@@ -1162,13 +1170,13 @@
         <v>45369</v>
       </c>
       <c r="T4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
@@ -1181,7 +1189,7 @@
         <v>45370</v>
       </c>
       <c r="V5" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W5" s="23"/>
       <c r="X5" s="23"/>
@@ -1194,7 +1202,7 @@
         <v>45371</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
@@ -1210,7 +1218,7 @@
         <v>45372</v>
       </c>
       <c r="V7" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W7" s="23"/>
       <c r="X7" s="23">
@@ -1226,7 +1234,7 @@
         <v>45373</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W8" s="24"/>
       <c r="X8" s="25"/>
@@ -1242,47 +1250,47 @@
         <v>45374</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="U9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="V9" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
@@ -1298,47 +1306,48 @@
         <v>45375</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P10" s="5"/>
       <c r="Q10" s="10"/>
       <c r="V10" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W10" s="25"/>
       <c r="X10" s="25">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="Y10" s="25">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z10" s="24"/>
     </row>
@@ -1346,8 +1355,8 @@
       <c r="A11" s="4">
         <v>45376</v>
       </c>
-      <c r="V11" s="34" t="s">
-        <v>153</v>
+      <c r="V11" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="W11" s="25"/>
       <c r="X11" s="23"/>
@@ -1355,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="Z11" s="24">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
@@ -1368,7 +1377,7 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="24">
         <f>SUM(Z2:Z11)</f>
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
@@ -1385,8 +1394,9 @@
       <c r="A15" s="4">
         <v>45380</v>
       </c>
+      <c r="P15" s="29"/>
       <c r="Q15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
@@ -1394,76 +1404,78 @@
         <v>45381</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="H16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="I16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="L16" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="M16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="N16" t="s">
         <v>63</v>
       </c>
-      <c r="L16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="O16" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>45382</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P17" s="5"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -1496,35 +1508,31 @@
         <v>45388</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="I23" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1532,36 +1540,36 @@
         <v>45389</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="10"/>
     </row>
@@ -1595,35 +1603,35 @@
         <v>45395</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1631,36 +1639,32 @@
         <v>45396</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="10"/>
     </row>
@@ -1694,33 +1698,34 @@
         <v>45402</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K37" s="30"/>
       <c r="L37" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>126</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -1729,34 +1734,35 @@
       <c r="B38" s="14"/>
       <c r="D38" s="10"/>
       <c r="E38" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K38" s="30"/>
       <c r="L38" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P38" s="15"/>
       <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -1789,22 +1795,22 @@
         <v>45409</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1814,27 +1820,28 @@
       <c r="B45" s="14"/>
       <c r="D45" s="10"/>
       <c r="E45" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J45" s="10"/>
       <c r="L45" s="22" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -1877,6 +1884,7 @@
       <c r="J52" s="10"/>
       <c r="M52" s="10"/>
       <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
@@ -1904,10 +1912,10 @@
         <v>45422</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P57" s="33" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
@@ -1915,10 +1923,10 @@
         <v>45423</v>
       </c>
       <c r="K58" s="31" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P58" s="33" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1930,6 +1938,7 @@
       <c r="G59" s="10"/>
       <c r="J59" s="10"/>
       <c r="M59" s="10"/>
+      <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
@@ -1937,41 +1946,36 @@
       <c r="A60" s="4">
         <v>45425</v>
       </c>
-      <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45426</v>
       </c>
-      <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>45427</v>
       </c>
-      <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>45428</v>
       </c>
-      <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>45429</v>
       </c>
-      <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>45430</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P65" s="32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1984,6 +1988,7 @@
       <c r="J66" s="10"/>
       <c r="M66" s="10"/>
       <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96C7AD-794D-4B63-A5F9-CEB671C76976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A625C-C77D-41E2-B5AA-81CB26F86F8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12200" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="北大杯" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>注：</t>
   </si>
@@ -200,7 +200,7 @@
     <t>d4vsd1</t>
   </si>
   <si>
-    <t>d3vsd5</t>
+    <t>d2vsd5</t>
   </si>
   <si>
     <t>A5vsA6</t>
@@ -215,7 +215,7 @@
     <t>B3vsB4</t>
   </si>
   <si>
-    <t>c3vsc5（女）</t>
+    <t>c2vsc5（女）</t>
   </si>
   <si>
     <t>A1vsA4（女）</t>
@@ -233,7 +233,7 @@
     <t>e4vse1</t>
   </si>
   <si>
-    <t>e3vse5</t>
+    <t>e2vse5</t>
   </si>
   <si>
     <t>男甲</t>
@@ -302,13 +302,13 @@
     <t>c5vsc4（女）</t>
   </si>
   <si>
-    <t>c2vsc1（女）</t>
+    <t>c3vsc1（女）</t>
   </si>
   <si>
     <t>e5vse4</t>
   </si>
   <si>
-    <t>e2vse1</t>
+    <t>e3vse1</t>
   </si>
   <si>
     <t>A4vsA2</t>
@@ -332,7 +332,7 @@
     <t>d5vsd4</t>
   </si>
   <si>
-    <t>d2vsd1</t>
+    <t>d3vsd1</t>
   </si>
   <si>
     <t>B4vsB2</t>
@@ -422,7 +422,7 @@
     <t>A6vsA2（女）</t>
   </si>
   <si>
-    <t>A7vsA3（女）</t>
+    <t>A8vsA3（女）</t>
   </si>
   <si>
     <t>f1vsf8</t>
@@ -437,7 +437,7 @@
     <t>f2vsf7</t>
   </si>
   <si>
-    <t>A8vsA4（女）</t>
+    <t>A7vsA4（女）</t>
   </si>
   <si>
     <t>A1vsA5（女）</t>
@@ -461,7 +461,7 @@
     <t>A7vsA1（女）</t>
   </si>
   <si>
-    <t>A8vsA3（女）</t>
+    <t>A6vsA3（女）</t>
   </si>
   <si>
     <t>g1vsg4</t>
@@ -476,7 +476,10 @@
     <t>男甲保级赛2vs男甲保级赛3</t>
   </si>
   <si>
-    <t>A2vsA6（女）</t>
+    <t>A4vsA8（女）</t>
+  </si>
+  <si>
+    <t>A2vsA5（女）</t>
   </si>
   <si>
     <t>g2vsg3</t>
@@ -1140,15 +1143,15 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" style="4"/>
+    <col min="1" max="1" width="9.625" style="4"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="9" style="6"/>
@@ -1160,11 +1163,11 @@
     <col min="14" max="14" width="9" style="5"/>
     <col min="15" max="15" width="9" style="6"/>
     <col min="16" max="20" width="9" style="4"/>
-    <col min="21" max="21" width="18.81640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="18.75" style="4" customWidth="1"/>
     <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7">
         <v>0.53472222222222199</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>0.86111111111111105</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>45731</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>45732</v>
       </c>
@@ -1290,7 +1293,7 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>45733</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>45734</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="N5" s="22"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>45735</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>45736</v>
       </c>
@@ -1338,7 +1341,7 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="64"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>45737</v>
       </c>
@@ -1348,7 +1351,7 @@
       <c r="N8" s="22"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>45738</v>
       </c>
@@ -1387,7 +1390,7 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>45739</v>
       </c>
@@ -1426,7 +1429,7 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>45740</v>
       </c>
@@ -1437,12 +1440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>45741</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>45742</v>
       </c>
@@ -1450,17 +1453,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>45743</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>45744</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>45745</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>45746</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>45747</v>
       </c>
@@ -1579,12 +1582,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>45748</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>45749</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>45750</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>45751</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>45752</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>45753</v>
       </c>
@@ -1712,32 +1715,32 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>45754</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>45755</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>45756</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>45757</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>45758</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>45759</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>45760</v>
       </c>
@@ -1817,33 +1820,33 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>45761</v>
       </c>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>45762</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>45763</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>45764</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>45765</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>45766</v>
       </c>
@@ -1869,7 +1872,7 @@
       </c>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>45767</v>
       </c>
@@ -1895,32 +1898,32 @@
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>45768</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="11">
         <v>45769</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="11">
         <v>45770</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="11">
         <v>45771</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="11">
         <v>45772</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11">
         <v>45773</v>
       </c>
@@ -1946,7 +1949,7 @@
       </c>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11">
         <v>45774</v>
       </c>
@@ -1955,49 +1958,49 @@
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J45" s="18"/>
       <c r="L45" s="48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="11">
         <v>45775</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="11">
         <v>45776</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="11">
         <v>45777</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="11">
         <v>45778</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="11">
         <v>45779</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11">
         <v>45780</v>
       </c>
@@ -2008,7 +2011,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11">
         <v>45781</v>
       </c>
@@ -2019,162 +2022,162 @@
       <c r="N52" s="20"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="11">
         <v>45782</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="11">
         <v>45783</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="11">
         <v>45784</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="11">
         <v>45785</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="11">
         <v>45786</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="59"/>
       <c r="P57" s="60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q57" s="13"/>
       <c r="R57" s="65"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="11">
         <v>45787</v>
       </c>
       <c r="I58" s="61"/>
       <c r="K58" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="62"/>
       <c r="P58" s="63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="11">
         <v>45788</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="11">
         <v>45789</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="11">
         <v>45790</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="11">
         <v>45791</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="11">
         <v>45792</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="11">
         <v>45793</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11">
         <v>45794</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11">
         <v>45795</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11">
         <v>45796</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11">
         <v>45797</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11">
         <v>45798</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11">
         <v>45799</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11">
         <v>45800</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11">
         <v>45801</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="11">
         <v>45802</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="11">
         <v>45803</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="11">
         <v>45804</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="11">
         <v>45805</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="11">
         <v>45806</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="11">
         <v>45807</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="11">
         <v>45808</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="11">
         <v>45809</v>
       </c>
